--- a/Project/Phase 1/Sprint 1/Rodrigo_Jacob_55859/data_collected_metrics.xlsx
+++ b/Project/Phase 1/Sprint 1/Rodrigo_Jacob_55859/data_collected_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Desktop\dev\FCT\ES\deliverable_repo\ESProject\Project\Phase 1\Sprint 1\Rodrigo_Jacob_55859\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755F24E3-FD88-44C8-A851-D1E626020C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115985EE-6AA0-409E-9588-691F050A86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{58491B7C-F909-4938-A563-AA2F6A19D1B7}"/>
   </bookViews>
@@ -543,7 +543,7 @@
     <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
